--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -40,7 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
@@ -49,105 +49,117 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>low</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -160,37 +172,25 @@
     <t>help</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,16 +741,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,37 +770,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6388888888888888</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C6">
+        <v>176</v>
+      </c>
+      <c r="D6">
+        <v>176</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>116</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="L6">
-        <v>29</v>
-      </c>
       <c r="M6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5924657534246576</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C7">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5172413793103449</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -970,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1746031746031746</v>
+        <v>0.24</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1627906976744186</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,21 +1062,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1798941798941799</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>155</v>
+      </c>
       <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0.75</v>
+      </c>
+      <c r="L12">
         <v>27</v>
       </c>
-      <c r="K12">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L12">
-        <v>65</v>
-      </c>
       <c r="M12">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,21 +1112,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1006711409395973</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>134</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7183098591549296</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7075471698113207</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="L20">
         <v>35</v>
       </c>
-      <c r="K20">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
       <c r="M20">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1296,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1348,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5851063829787234</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5531914893617021</v>
+        <v>0.5625</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1483,16 +1531,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5238095238095238</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5143603133159269</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L29">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>186</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4352941176470588</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4269662921348314</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4203389830508474</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L32">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="M32">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1608,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4117647058823529</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.3777777777777778</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.358974358974359</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1686,47 +1734,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>27</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>51</v>
-      </c>
-      <c r="K36">
-        <v>0.3305439330543933</v>
-      </c>
-      <c r="L36">
-        <v>79</v>
-      </c>
-      <c r="M36">
-        <v>79</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.325</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1738,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3150684931506849</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1764,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.25</v>
+        <v>0.328125</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1790,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.2153846153846154</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1816,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.1857142857142857</v>
+        <v>0.01553829078801332</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1842,85 +1890,33 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>57</v>
+        <v>887</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.01553829078801332</v>
+        <v>0.004507405022537025</v>
       </c>
       <c r="L42">
         <v>14</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43">
-        <v>0.007469654528478058</v>
-      </c>
-      <c r="L43">
-        <v>16</v>
-      </c>
-      <c r="M43">
-        <v>17</v>
-      </c>
-      <c r="N43">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O43">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="L44">
-        <v>15</v>
-      </c>
-      <c r="M44">
-        <v>17</v>
-      </c>
-      <c r="N44">
-        <v>0.88</v>
-      </c>
-      <c r="O44">
-        <v>0.12</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3090</v>
+        <v>3092</v>
       </c>
     </row>
   </sheetData>
